--- a/Reporte.xlsx
+++ b/Reporte.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="110">
   <si>
     <t>Nombre_producto</t>
   </si>
@@ -77,42 +77,42 @@
     <t>SARDINAS EN ACEITE AL LIMON</t>
   </si>
   <si>
+    <t>FILETE ATUN EN ACEITE</t>
+  </si>
+  <si>
+    <t>FILETE DE ATUN EN ACEITE</t>
+  </si>
+  <si>
+    <t>TROZOS ATUN EN ACEITE</t>
+  </si>
+  <si>
     <t>LOMOS DE ATUN EN ACEITE</t>
   </si>
   <si>
-    <t>FILETE DE ATUN EN ACEITE</t>
-  </si>
-  <si>
-    <t>FILETE ATUN EN ACEITE</t>
-  </si>
-  <si>
-    <t>TROZOS ATUN EN ACEITE</t>
-  </si>
-  <si>
     <t>SÓLIDO DE ATÚN EN ACEITE 170 GR</t>
   </si>
   <si>
     <t>FILETE DE ATUN EN ACEITE GIRASOL</t>
   </si>
   <si>
+    <t>FILETE DE ATÚN EN ACEITE TOTTUS 170 GR</t>
+  </si>
+  <si>
     <t>SÓLIDO DE CABALLA EN ACEITE CAMPOMAR 170 GR</t>
   </si>
   <si>
-    <t>FILETE DE ATÚN EN ACEITE TOTTUS 170 GR</t>
-  </si>
-  <si>
     <t>LOMITO DE ATUN ACEITE VEGETAL 170 GR</t>
   </si>
   <si>
     <t>FILETE DE ATÚN EN ACEITE FLORIDA 150 GR</t>
   </si>
   <si>
+    <t>TROZOS DE ATÚN EN ACEITE VEGETAL CAMPOMAR 170 GR</t>
+  </si>
+  <si>
     <t>FILETE DE ATÚN CLARO EN ACEITE CAMPOMAR 170 GR</t>
   </si>
   <si>
-    <t>TROZOS DE ATÚN EN ACEITE VEGETAL CAMPOMAR 170 GR</t>
-  </si>
-  <si>
     <t>FILETE DE ATUN EN ACEITE TOTTUS PACK 2 X 170G</t>
   </si>
   <si>
@@ -134,12 +134,12 @@
     <t>PACK FILETE DE ATÚN CAMPOMAR 6 UNIDADES</t>
   </si>
   <si>
+    <t>PACK SÓLIDO DE CABALLA 6 UNIDADES CAMPOMAR 170 GR</t>
+  </si>
+  <si>
     <t>PACK TROZOS DE ATÚN 6 UNIDADES 170 GR</t>
   </si>
   <si>
-    <t>PACK SÓLIDO DE CABALLA 6 UNIDADES CAMPOMAR 170 GR</t>
-  </si>
-  <si>
     <t>ACEITE DE CANOLA ORGÁNICO REFINADO TOTTUS 750 ML</t>
   </si>
   <si>
@@ -167,24 +167,6 @@
     <t>ACEITE DE OLIVA ARBEQUINA VIRGEN EXTRA GARCÍA DE LA CRUZ 250 ML</t>
   </si>
   <si>
-    <t>Aceite Vegetal PRIMOR Premium Botella</t>
-  </si>
-  <si>
-    <t>Aceite Vegetal BELL'S Botella 90</t>
-  </si>
-  <si>
-    <t>Aceite de Soya SAO Botella 90</t>
-  </si>
-  <si>
-    <t>Aceite Vegetal PRIMOR Premium Botella 90</t>
-  </si>
-  <si>
-    <t>Aceite Vegetal BELL'S Galonera</t>
-  </si>
-  <si>
-    <t>Aceite Vegetal NICOLINI Botella</t>
-  </si>
-  <si>
     <t>Aceite de Girasol SALAD SPECIAL Botella 90</t>
   </si>
   <si>
@@ -194,39 +176,18 @@
     <t xml:space="preserve">Pack Filete de Atún FLORIDA en Aceite Vegetal </t>
   </si>
   <si>
-    <t>Aceite Vegetal BELL'S Botella</t>
-  </si>
-  <si>
-    <t>Aceite Vegetal COCINERO Botella 1</t>
-  </si>
-  <si>
     <t>Aceite de Soya BELL'S Botella 90</t>
   </si>
   <si>
     <t xml:space="preserve">Aceite Vegetal SALAD Canola con Antioxidantes </t>
   </si>
   <si>
-    <t>Aceite Vegetal BELL'S SELECCIÓN Botella</t>
-  </si>
-  <si>
     <t>Pack Aceite de Oliva EL OLIVAR Extra Virgen Bo</t>
   </si>
   <si>
-    <t>Aceite Vegetal PRIMOR Botella</t>
-  </si>
-  <si>
-    <t>Aceite Vegetal COCINERO Botella</t>
-  </si>
-  <si>
-    <t>Aceite Vegetal NICOLINI Botella 90</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aceite de Oliva BELL'S SELECCIÓN Extra Virgen </t>
   </si>
   <si>
-    <t>Aceite Vegetal DELEITE Botella 90</t>
-  </si>
-  <si>
     <t>Aceite de Ajonjolí BELL'S SELECCIÓN Frasco 200</t>
   </si>
   <si>
@@ -257,103 +218,130 @@
     <t xml:space="preserve">Aceite de Oliva ACAVILLE Extra Virgen Botella </t>
   </si>
   <si>
+    <t>Aceite de Oliva BELL'S Virgen Botella 20</t>
+  </si>
+  <si>
     <t>Aceite de Oliva CARBONELL Extra Virgen Botella</t>
   </si>
   <si>
+    <t>Aceite de Oliva CARBONELL Extra Virgen Spray 2</t>
+  </si>
+  <si>
     <t>Aceite de Oliva HUERTO ALAMEIN Puro Botella</t>
   </si>
   <si>
     <t xml:space="preserve">Aceite de Sacha Inchi NUTRIOMEGA Extra Virgen </t>
   </si>
   <si>
+    <t>Aceite de Oliva CARBONELL Sabor Afrutado Inten</t>
+  </si>
+  <si>
+    <t>Aceite de Oliva BELL'S Virgen Botella 90</t>
+  </si>
+  <si>
+    <t>Pack Pañales Bebé BABYSEC Súper Premium XXG Pa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pack Pañales Bebé BABYSEC Premium XXG Paquete </t>
+  </si>
+  <si>
+    <t>Aceite de Oliva VALDEPORRES Gran Selección Bot</t>
+  </si>
+  <si>
+    <t>Aceite de Coco Virgen MI TIERRA Frasco 3</t>
+  </si>
+  <si>
+    <t>Aceite de Ajonjolí OLIVOS DEL SUR Botella 500m</t>
+  </si>
+  <si>
+    <t>Aceite de Oliva VALDEPORRES Suave Botella</t>
+  </si>
+  <si>
     <t>Aceite de Oliva OLIVOS DEL SUR Extra Virgen Bo</t>
   </si>
   <si>
-    <t>Aceite de Oliva BELL'S Virgen Botella 90</t>
-  </si>
-  <si>
-    <t>Aceite Vegetal DEL CIELO Soya Bidón</t>
-  </si>
-  <si>
-    <t>Aceite de Oliva VALDEPORRES Gran Selección Bot</t>
-  </si>
-  <si>
-    <t>Aceite de Ajonjolí OLIVOS DEL SUR Botella 500m</t>
-  </si>
-  <si>
-    <t>Aceite de Oliva VALDEPORRES Suave Botella</t>
+    <t>Aceite de Oliva BELL'S Virgen Botella 50</t>
+  </si>
+  <si>
+    <t>Aceite de Coco BELL'S SELECCIÓN Frasco 35</t>
   </si>
   <si>
     <t>Aceite de Oliva EL OLIVAR Puro Botella</t>
   </si>
   <si>
+    <t>Aceite de Oliva VALDEPORRES Virgen Botella</t>
+  </si>
+  <si>
+    <t>Aceite de Sacha Inchi HUERTO ALAMEIN Extra Vir</t>
+  </si>
+  <si>
     <t>Aceite de Maíz BASSO Botella</t>
   </si>
   <si>
-    <t>Pack Pañales Bebé BABYSEC Súper Premium XXG Pa</t>
+    <t>Aceite de Maíz MAZOLA Botella 71</t>
+  </si>
+  <si>
+    <t>Pack Pañales Bebé BABYSEC Premium XG Paquete 1</t>
+  </si>
+  <si>
+    <t>Aceite Vegetal MAZOLA Canola y Girasol Spray 1</t>
   </si>
   <si>
     <t>Pack Pañales Bebé BABYSEC Súper Premium XG Paq</t>
   </si>
   <si>
-    <t>Pack Pañales Bebé BABYSEC Premium XG Paquete 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pack Pañales Bebé BABYSEC Premium XXG Paquete </t>
-  </si>
-  <si>
-    <t>Aceite de Girasol Cuisine &amp; Co Botella 1 Lt</t>
-  </si>
-  <si>
-    <t>Aceite Vegetal Primor Corazón 900ml</t>
-  </si>
-  <si>
-    <t>Aceite de Oliva Extra Virgen Cuisine &amp; Co Botella 1 lt</t>
-  </si>
-  <si>
-    <t>Aceite Vegetal Deleite Premium 900ml</t>
-  </si>
-  <si>
-    <t>Aceite Vegetal Cocinero 900ml</t>
-  </si>
-  <si>
-    <t>Aceite Sabor Original Pam Spray 6 Onzas</t>
-  </si>
-  <si>
-    <t>Aceite de Oliva Filippo Berio Extra Virgen Botella 1 L</t>
-  </si>
-  <si>
-    <t>Aceite Renovador de Muebles Pride Aerosol 378 ml</t>
-  </si>
-  <si>
-    <t>Aceite Sacha Inchi Nutriomega Extra Virgen Botella 250 ml</t>
-  </si>
-  <si>
-    <t>Aceite de Maíz Mazola 473ml</t>
-  </si>
-  <si>
-    <t>Aceite Blindax Oil Gas SAE 20W-50 Frasco 950 ml</t>
-  </si>
-  <si>
-    <t>Aceite de Oliva Virgen Botella 500 ml</t>
-  </si>
-  <si>
-    <t>Aceite Vegetal Cil Balde 20 Litros</t>
-  </si>
-  <si>
-    <t>Aceite de Oliva Extra Virgen Huerto Alamein Botella 200 cc</t>
-  </si>
-  <si>
-    <t>Aceite de Oliva Filippo Berio Puro Botella 500 ml</t>
-  </si>
-  <si>
-    <t>Aceite de Maíz Mazola Original Botella 710 ml</t>
-  </si>
-  <si>
-    <t>Aceite Original Mazola Spray Lata 142 g</t>
-  </si>
-  <si>
-    <t>Aceite de Oliva Olivos del Sur Extra Virgen Botella 1 L</t>
+    <t>Aceite Vegetal Cuisine&amp;Co Botella 900 ml</t>
+  </si>
+  <si>
+    <t>Aceite Vegetal Máxima 900ml</t>
+  </si>
+  <si>
+    <t>Aceite de Soya Sao 900ml</t>
+  </si>
+  <si>
+    <t>Aceite de Oliva El Olivar Extra Virgen 500ml</t>
+  </si>
+  <si>
+    <t>Aceite de Coco Orgánico Cuisine &amp; Co 350ml</t>
+  </si>
+  <si>
+    <t>Aceite Vegetal Nicolini 900ml</t>
+  </si>
+  <si>
+    <t>Aceite Vegetal Cocinero Botella 5 Litros</t>
+  </si>
+  <si>
+    <t>Aceite de Oliva Filippo Berio Puro Botella 1 L</t>
+  </si>
+  <si>
+    <t>Aceite de Oliva Extra Virgen Botella 250 ml</t>
+  </si>
+  <si>
+    <t>Aceite de Oliva Cuisine &amp; Co Botella 500 ml</t>
+  </si>
+  <si>
+    <t>Aceite de Oliva Extra Virgen Cuisine &amp; Co Botella 500 ml</t>
+  </si>
+  <si>
+    <t>Aceite De Canola Borges Botella 1 Litro</t>
+  </si>
+  <si>
+    <t>Aceite Oliva Extra Virgen Huerto Alamein 1L</t>
+  </si>
+  <si>
+    <t>Aceite de Maíz Florida 1L</t>
+  </si>
+  <si>
+    <t>Aceite de Oliva Extra Virgen Carbonell Botella 500 ml</t>
+  </si>
+  <si>
+    <t>Aceite de Oliva El Olivar Extra Virgen Intenso 500ml</t>
+  </si>
+  <si>
+    <t>Aceite Oliva Puro Huerto Alamein Botella 1 Litro</t>
+  </si>
+  <si>
+    <t>Aceite de Oliva Borges Extra Virgen Botella 250 ml</t>
   </si>
   <si>
     <t>tottus</t>
@@ -745,7 +733,7 @@
         <v>19.9</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -756,7 +744,7 @@
         <v>10.9</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -767,7 +755,7 @@
         <v>26.6</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -778,7 +766,7 @@
         <v>25.2</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -789,7 +777,7 @@
         <v>55.9</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -800,7 +788,7 @@
         <v>8.9</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -811,7 +799,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -822,7 +810,7 @@
         <v>6.2</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -833,7 +821,7 @@
         <v>7.7</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -844,7 +832,7 @@
         <v>11.3</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -855,7 +843,7 @@
         <v>6.6</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -866,7 +854,7 @@
         <v>26.9</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -877,7 +865,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -885,10 +873,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>6.95</v>
+        <v>6.8</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -899,7 +887,7 @@
         <v>6.7</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -907,10 +895,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -918,10 +906,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>6.95</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -932,7 +920,7 @@
         <v>5.8</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -943,7 +931,7 @@
         <v>6.4</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -951,10 +939,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -962,10 +950,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -976,7 +964,7 @@
         <v>13.5</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -987,7 +975,7 @@
         <v>6.3</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -995,10 +983,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1006,10 +994,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1020,7 +1008,7 @@
         <v>8.9</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1031,7 +1019,7 @@
         <v>4.6</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1042,7 +1030,7 @@
         <v>34.5</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1053,7 +1041,7 @@
         <v>20.5</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1064,7 +1052,7 @@
         <v>18.1</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1075,7 +1063,7 @@
         <v>8.1</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1086,7 +1074,7 @@
         <v>39.9</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1094,10 +1082,10 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>39.5</v>
+        <v>33.9</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1105,10 +1093,10 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>33.9</v>
+        <v>39.5</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1119,7 +1107,7 @@
         <v>22.5</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1130,7 +1118,7 @@
         <v>92.3</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1141,7 +1129,7 @@
         <v>38.6</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1152,7 +1140,7 @@
         <v>18.4</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1163,7 +1151,7 @@
         <v>18.4</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1174,7 +1162,7 @@
         <v>67.5</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1185,7 +1173,7 @@
         <v>26.4</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1196,7 +1184,7 @@
         <v>18.4</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1207,7 +1195,7 @@
         <v>18.4</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1218,7 +1206,7 @@
         <v>28.9</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1229,7 +1217,7 @@
         <v>25.2</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1240,7 +1228,7 @@
         <v>14.9</v>
       </c>
       <c r="C47" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1248,10 +1236,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>11.5</v>
+        <v>7.9</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1259,10 +1247,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>8.390000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1270,10 +1258,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>8.99</v>
+        <v>17.97</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1281,10 +1269,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1292,10 +1280,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>42.5</v>
+        <v>7.9</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1303,10 +1291,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>9.99</v>
+        <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1314,10 +1302,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>7.9</v>
+        <v>29.9</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1325,10 +1313,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>8.699999999999999</v>
+        <v>10.9</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1336,10 +1324,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>17.97</v>
+        <v>58.49</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1347,10 +1335,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>25.9</v>
+        <v>14.59</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1358,637 +1346,637 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>19.49</v>
+        <v>12.29</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>8.6</v>
+        <v>25.9</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>7.9</v>
+        <v>21.9</v>
       </c>
       <c r="C60" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>9.9</v>
+        <v>36.9</v>
       </c>
       <c r="C61" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>40</v>
+        <v>12.9</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>11.5</v>
+        <v>21.09</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>11.09</v>
+        <v>32.9</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>9.99</v>
+        <v>17.9</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>29.9</v>
+        <v>32.9</v>
       </c>
       <c r="C66" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>10</v>
+        <v>7.7</v>
       </c>
       <c r="C67" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>10.9</v>
+        <v>38.9</v>
       </c>
       <c r="C68" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B69">
-        <v>58.49</v>
+        <v>33.29</v>
       </c>
       <c r="C69" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B70">
-        <v>14.59</v>
+        <v>15.9</v>
       </c>
       <c r="C70" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B71">
-        <v>12.29</v>
+        <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B72">
-        <v>25.9</v>
+        <v>23.9</v>
       </c>
       <c r="C72" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B73">
-        <v>21.9</v>
+        <v>22.9</v>
       </c>
       <c r="C73" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B74">
-        <v>36.9</v>
+        <v>21.59</v>
       </c>
       <c r="C74" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B75">
-        <v>12.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C75" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B76">
-        <v>21.09</v>
+        <v>29.8</v>
       </c>
       <c r="C76" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B77">
-        <v>32.9</v>
+        <v>129.9</v>
       </c>
       <c r="C77" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B78">
-        <v>17.9</v>
+        <v>129.9</v>
       </c>
       <c r="C78" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B79">
-        <v>32.9</v>
+        <v>17.5</v>
       </c>
       <c r="C79" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B80">
-        <v>38.9</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C80" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B81">
-        <v>33.29</v>
+        <v>30.39</v>
       </c>
       <c r="C81" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B82">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="C82" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B83">
-        <v>23.9</v>
+        <v>32.9</v>
       </c>
       <c r="C83" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B84">
-        <v>21.59</v>
+        <v>30.9</v>
       </c>
       <c r="C84" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B85">
-        <v>45.59</v>
+        <v>17.9</v>
       </c>
       <c r="C85" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B86">
-        <v>29.8</v>
+        <v>12.9</v>
       </c>
       <c r="C86" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B87">
-        <v>54.5</v>
+        <v>45.59</v>
       </c>
       <c r="C87" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B88">
-        <v>68.90000000000001</v>
+        <v>26.8</v>
       </c>
       <c r="C88" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B89">
-        <v>31.9</v>
+        <v>38.5</v>
       </c>
       <c r="C89" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B90">
-        <v>32.9</v>
+        <v>34.9</v>
       </c>
       <c r="C90" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B91">
-        <v>30.9</v>
+        <v>21.3</v>
       </c>
       <c r="C91" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B92">
-        <v>38.5</v>
+        <v>18.4</v>
       </c>
       <c r="C92" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B93">
-        <v>18.4</v>
+        <v>26.5</v>
       </c>
       <c r="C93" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B94">
         <v>129.9</v>
       </c>
       <c r="C94" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="B95">
-        <v>129.9</v>
+        <v>140.9</v>
       </c>
       <c r="C95" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B96">
-        <v>129.9</v>
+        <v>21.59</v>
       </c>
       <c r="C96" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B97">
         <v>129.9</v>
       </c>
       <c r="C97" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B98">
-        <v>11.99</v>
+        <v>8.9</v>
       </c>
       <c r="C98" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B99">
-        <v>12.29</v>
+        <v>8.6</v>
       </c>
       <c r="C99" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B100">
-        <v>35.9</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="C100" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B101">
-        <v>9.390000000000001</v>
+        <v>25.9</v>
       </c>
       <c r="C101" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B102">
-        <v>11.09</v>
+        <v>25.99</v>
       </c>
       <c r="C102" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B103">
-        <v>21.5</v>
+        <v>11.29</v>
       </c>
       <c r="C103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B104">
-        <v>45.9</v>
+        <v>62</v>
       </c>
       <c r="C104" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B105">
-        <v>21.6</v>
+        <v>37.9</v>
       </c>
       <c r="C105" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B106">
-        <v>25.5</v>
+        <v>15.69</v>
       </c>
       <c r="C106" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B107">
-        <v>25.4</v>
+        <v>17.9</v>
       </c>
       <c r="C107" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B108">
-        <v>17.99</v>
+        <v>22.9</v>
       </c>
       <c r="C108" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B109">
-        <v>29.6</v>
+        <v>16.9</v>
       </c>
       <c r="C109" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B110">
-        <v>216.5</v>
+        <v>36.9</v>
       </c>
       <c r="C110" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B111">
-        <v>11.8</v>
+        <v>14.59</v>
       </c>
       <c r="C111" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B112">
-        <v>21.9</v>
+        <v>22.9</v>
       </c>
       <c r="C112" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B113">
-        <v>32.5</v>
+        <v>29.9</v>
       </c>
       <c r="C113" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B114">
-        <v>20.49</v>
+        <v>32</v>
       </c>
       <c r="C114" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B115">
-        <v>48.8</v>
+        <v>13.5</v>
       </c>
       <c r="C115" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2023,7 +2011,7 @@
         <v>55.9</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2034,7 +2022,7 @@
         <v>34.5</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2045,7 +2033,7 @@
         <v>39.9</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2053,10 +2041,10 @@
         <v>35</v>
       </c>
       <c r="B5">
-        <v>39.5</v>
+        <v>33.9</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2064,10 +2052,10 @@
         <v>36</v>
       </c>
       <c r="B6">
-        <v>33.9</v>
+        <v>39.5</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2078,7 +2066,7 @@
         <v>92.3</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2089,7 +2077,7 @@
         <v>38.6</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2100,7 +2088,7 @@
         <v>67.5</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2111,315 +2099,315 @@
         <v>28.9</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11">
-        <v>42.5</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>29.9</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B13">
-        <v>29.9</v>
+        <v>58.49</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B14">
-        <v>58.49</v>
+        <v>36.9</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B15">
-        <v>36.9</v>
+        <v>32.9</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B16">
         <v>32.9</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B17">
-        <v>32.9</v>
+        <v>38.9</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>38.9</v>
+        <v>33.29</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19">
-        <v>33.29</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B20">
-        <v>32</v>
+        <v>29.8</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B21">
-        <v>45.59</v>
+        <v>129.9</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B22">
-        <v>29.8</v>
+        <v>129.9</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B23">
-        <v>54.5</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B24">
-        <v>68.90000000000001</v>
+        <v>30.39</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B25">
         <v>31.9</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B26">
         <v>32.9</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B27">
         <v>30.9</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B28">
-        <v>38.5</v>
+        <v>45.59</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B29">
-        <v>129.9</v>
+        <v>38.5</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B30">
-        <v>129.9</v>
+        <v>34.9</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B31">
         <v>129.9</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="B32">
-        <v>129.9</v>
+        <v>140.9</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B33">
-        <v>35.9</v>
+        <v>129.9</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B34">
-        <v>45.9</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B35">
-        <v>29.6</v>
+        <v>37.9</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B36">
-        <v>216.5</v>
+        <v>36.9</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B37">
-        <v>32.5</v>
+        <v>29.9</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B38">
-        <v>48.8</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2448,57 +2436,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="B2">
-        <v>216.5</v>
+        <v>140.9</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <v>129.9</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B4">
         <v>129.9</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B5">
         <v>129.9</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B6">
         <v>129.9</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2509,18 +2497,18 @@
         <v>92.3</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>68.90000000000001</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2531,315 +2519,315 @@
         <v>67.5</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="B10">
-        <v>58.49</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B11">
-        <v>55.9</v>
+        <v>58.49</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>54.5</v>
+        <v>55.9</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B13">
-        <v>48.8</v>
+        <v>45.59</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B14">
-        <v>45.9</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="B15">
-        <v>45.59</v>
+        <v>39.9</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B16">
-        <v>42.5</v>
+        <v>39.5</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>38.9</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B18">
-        <v>39.9</v>
+        <v>38.6</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="B19">
-        <v>39.5</v>
+        <v>38.5</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B20">
-        <v>38.9</v>
+        <v>37.9</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>38.6</v>
+        <v>36.9</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B22">
-        <v>38.5</v>
+        <v>36.9</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B23">
-        <v>36.9</v>
+        <v>34.9</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>35.9</v>
+        <v>34.5</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>34.5</v>
+        <v>33.9</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B26">
-        <v>33.9</v>
+        <v>33.29</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B27">
-        <v>33.29</v>
+        <v>32.9</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B28">
         <v>32.9</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B29">
         <v>32.9</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>32.9</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B31">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B32">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B33">
-        <v>31.9</v>
+        <v>30.9</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B34">
-        <v>30.9</v>
+        <v>30.39</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="B35">
         <v>29.9</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B36">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="B37">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2850,7 +2838,7 @@
         <v>28.9</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2861,84 +2849,84 @@
         <v>26.9</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="B40">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B41">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B42">
-        <v>25.9</v>
+        <v>26.5</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>25.9</v>
+        <v>26.4</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B44">
-        <v>25.5</v>
+        <v>25.99</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="B45">
-        <v>25.4</v>
+        <v>25.9</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="B46">
-        <v>25.2</v>
+        <v>25.9</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2949,579 +2937,579 @@
         <v>25.2</v>
       </c>
       <c r="C47" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>23.9</v>
+        <v>25.2</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B49">
-        <v>22.5</v>
+        <v>23.9</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B50">
-        <v>21.9</v>
+        <v>22.9</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B51">
-        <v>21.9</v>
+        <v>22.9</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B52">
-        <v>21.6</v>
+        <v>22.9</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B53">
-        <v>21.59</v>
+        <v>22.5</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>21.09</v>
+        <v>21.59</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="B56">
-        <v>20.5</v>
+        <v>21.59</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="B57">
-        <v>20.49</v>
+        <v>21.3</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>19.9</v>
+        <v>21.09</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B59">
-        <v>19.49</v>
+        <v>20.5</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B60">
-        <v>18.4</v>
+        <v>19.9</v>
       </c>
       <c r="C60" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B61">
         <v>18.4</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>18.4</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B63">
         <v>18.4</v>
       </c>
       <c r="C63" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B64">
         <v>18.4</v>
       </c>
       <c r="C64" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B65">
-        <v>18.1</v>
+        <v>18.4</v>
       </c>
       <c r="C65" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="B66">
-        <v>17.99</v>
+        <v>18.1</v>
       </c>
       <c r="C66" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B67">
         <v>17.97</v>
       </c>
       <c r="C67" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B68">
         <v>17.9</v>
       </c>
       <c r="C68" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B69">
-        <v>16</v>
+        <v>17.9</v>
       </c>
       <c r="C69" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="B70">
-        <v>14.9</v>
+        <v>17.9</v>
       </c>
       <c r="C70" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B71">
-        <v>14.59</v>
+        <v>17.5</v>
       </c>
       <c r="C71" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B72">
-        <v>13.5</v>
+        <v>16.9</v>
       </c>
       <c r="C72" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B73">
-        <v>12.9</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B74">
-        <v>12.29</v>
+        <v>15.9</v>
       </c>
       <c r="C74" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B75">
-        <v>12.29</v>
+        <v>15.69</v>
       </c>
       <c r="C75" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="B76">
-        <v>11.99</v>
+        <v>14.9</v>
       </c>
       <c r="C76" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B77">
-        <v>11.8</v>
+        <v>14.59</v>
       </c>
       <c r="C77" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B78">
-        <v>11.5</v>
+        <v>14.59</v>
       </c>
       <c r="C78" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B79">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="C79" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="B80">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="C80" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="B81">
-        <v>11.3</v>
+        <v>12.9</v>
       </c>
       <c r="C81" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B82">
-        <v>11.09</v>
+        <v>12.9</v>
       </c>
       <c r="C82" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B83">
-        <v>11.09</v>
+        <v>12.29</v>
       </c>
       <c r="C83" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B84">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="C84" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>10.9</v>
+        <v>11.29</v>
       </c>
       <c r="C85" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="B86">
-        <v>10</v>
+        <v>10.9</v>
       </c>
       <c r="C86" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B87">
-        <v>9.99</v>
+        <v>10.9</v>
       </c>
       <c r="C87" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B88">
-        <v>9.99</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C88" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="B89">
-        <v>9.9</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="C89" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B90">
-        <v>9.390000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="C90" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B91">
-        <v>8.99</v>
+        <v>8.9</v>
       </c>
       <c r="C91" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="B92">
         <v>8.9</v>
       </c>
       <c r="C92" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B93">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C93" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B94">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="C94" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B95">
         <v>8.6</v>
       </c>
       <c r="C95" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B96">
-        <v>8.390000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="C96" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B97">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="C97" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B98">
         <v>7.9</v>
       </c>
       <c r="C98" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B99">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="C99" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3532,40 +3520,40 @@
         <v>7.7</v>
       </c>
       <c r="C100" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B101">
         <v>7.2</v>
       </c>
       <c r="C101" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B102">
         <v>6.95</v>
       </c>
       <c r="C102" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B103">
         <v>6.8</v>
       </c>
       <c r="C103" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3576,7 +3564,7 @@
         <v>6.7</v>
       </c>
       <c r="C104" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3587,7 +3575,7 @@
         <v>6.6</v>
       </c>
       <c r="C105" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3598,18 +3586,18 @@
         <v>6.4</v>
       </c>
       <c r="C106" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B107">
         <v>6.4</v>
       </c>
       <c r="C107" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3620,7 +3608,7 @@
         <v>6.3</v>
       </c>
       <c r="C108" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3631,18 +3619,18 @@
         <v>6.2</v>
       </c>
       <c r="C109" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B110">
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3653,7 +3641,7 @@
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3664,29 +3652,29 @@
         <v>5.8</v>
       </c>
       <c r="C112" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B113">
         <v>5.7</v>
       </c>
       <c r="C113" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B114">
         <v>4.8</v>
       </c>
       <c r="C114" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3697,7 +3685,7 @@
         <v>4.6</v>
       </c>
       <c r="C115" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3732,29 +3720,29 @@
         <v>4.6</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>4.8</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>5.7</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3765,29 +3753,29 @@
         <v>5.8</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3798,7 +3786,7 @@
         <v>6.2</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3809,29 +3797,29 @@
         <v>6.3</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>6.4</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>6.4</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3842,7 +3830,7 @@
         <v>6.6</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3853,623 +3841,623 @@
         <v>6.7</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>6.8</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>6.95</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>7.2</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="B17">
         <v>7.7</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>7.9</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B20">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B21">
-        <v>8.390000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="B22">
         <v>8.6</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B23">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B24">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="B25">
         <v>8.9</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B26">
-        <v>8.99</v>
+        <v>8.9</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>9.390000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="B28">
-        <v>9.9</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B29">
-        <v>9.99</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B30">
-        <v>9.99</v>
+        <v>10.9</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>10.9</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="B32">
-        <v>10.9</v>
+        <v>11.29</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="B33">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B34">
-        <v>11.09</v>
+        <v>12.29</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="B35">
-        <v>11.09</v>
+        <v>12.9</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B36">
-        <v>11.3</v>
+        <v>12.9</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="B37">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B38">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B39">
-        <v>11.5</v>
+        <v>14.59</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B40">
-        <v>11.8</v>
+        <v>14.59</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>11.99</v>
+        <v>14.9</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B42">
-        <v>12.29</v>
+        <v>15.69</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B43">
-        <v>12.29</v>
+        <v>15.9</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B44">
-        <v>12.9</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B45">
-        <v>13.5</v>
+        <v>16.9</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B46">
-        <v>14.59</v>
+        <v>17.5</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B47">
-        <v>14.9</v>
+        <v>17.9</v>
       </c>
       <c r="C47" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="B48">
-        <v>16</v>
+        <v>17.9</v>
       </c>
       <c r="C48" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="B49">
         <v>17.9</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>17.97</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="B51">
-        <v>17.99</v>
+        <v>18.1</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B52">
-        <v>18.1</v>
+        <v>18.4</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B53">
         <v>18.4</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B54">
         <v>18.4</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B55">
         <v>18.4</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B56">
         <v>18.4</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B57">
-        <v>18.4</v>
+        <v>19.9</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B58">
-        <v>19.49</v>
+        <v>20.5</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B59">
-        <v>19.9</v>
+        <v>21.09</v>
       </c>
       <c r="C59" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="B60">
-        <v>20.49</v>
+        <v>21.3</v>
       </c>
       <c r="C60" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="B61">
-        <v>20.5</v>
+        <v>21.59</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B62">
-        <v>21.09</v>
+        <v>21.59</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="B63">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="C63" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B64">
-        <v>21.59</v>
+        <v>22.5</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B65">
-        <v>21.6</v>
+        <v>22.9</v>
       </c>
       <c r="C65" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B66">
-        <v>21.9</v>
+        <v>22.9</v>
       </c>
       <c r="C66" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>21.9</v>
+        <v>22.9</v>
       </c>
       <c r="C67" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>22.5</v>
+        <v>23.9</v>
       </c>
       <c r="C68" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="B69">
-        <v>23.9</v>
+        <v>25.2</v>
       </c>
       <c r="C69" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -4480,84 +4468,84 @@
         <v>25.2</v>
       </c>
       <c r="C70" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B71">
-        <v>25.2</v>
+        <v>25.9</v>
       </c>
       <c r="C71" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B72">
-        <v>25.4</v>
+        <v>25.9</v>
       </c>
       <c r="C72" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B73">
-        <v>25.5</v>
+        <v>25.99</v>
       </c>
       <c r="C73" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B74">
-        <v>25.9</v>
+        <v>26.4</v>
       </c>
       <c r="C74" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>25.9</v>
+        <v>26.5</v>
       </c>
       <c r="C75" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B76">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="C76" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="C77" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -4568,7 +4556,7 @@
         <v>26.9</v>
       </c>
       <c r="C78" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -4579,315 +4567,315 @@
         <v>28.9</v>
       </c>
       <c r="C79" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="B80">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="C80" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="B81">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="C81" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B82">
         <v>29.9</v>
       </c>
       <c r="C82" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B83">
-        <v>30.9</v>
+        <v>30.39</v>
       </c>
       <c r="C83" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B84">
-        <v>31.9</v>
+        <v>30.9</v>
       </c>
       <c r="C84" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B85">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="C85" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B86">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="C86" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B87">
-        <v>32.9</v>
+        <v>32</v>
       </c>
       <c r="C87" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B88">
         <v>32.9</v>
       </c>
       <c r="C88" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B89">
         <v>32.9</v>
       </c>
       <c r="C89" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B90">
-        <v>33.29</v>
+        <v>32.9</v>
       </c>
       <c r="C90" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B91">
-        <v>33.9</v>
+        <v>33.29</v>
       </c>
       <c r="C91" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B92">
-        <v>34.5</v>
+        <v>33.9</v>
       </c>
       <c r="C92" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="B93">
-        <v>35.9</v>
+        <v>34.5</v>
       </c>
       <c r="C93" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B94">
-        <v>36.9</v>
+        <v>34.9</v>
       </c>
       <c r="C94" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>38.5</v>
+        <v>36.9</v>
       </c>
       <c r="C95" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B96">
-        <v>38.6</v>
+        <v>36.9</v>
       </c>
       <c r="C96" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>38.9</v>
+        <v>37.9</v>
       </c>
       <c r="C97" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="B98">
-        <v>39.5</v>
+        <v>38.5</v>
       </c>
       <c r="C98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B99">
-        <v>39.9</v>
+        <v>38.6</v>
       </c>
       <c r="C99" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B100">
-        <v>40</v>
+        <v>38.9</v>
       </c>
       <c r="C100" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B101">
-        <v>42.5</v>
+        <v>39.5</v>
       </c>
       <c r="C101" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="B102">
-        <v>45.59</v>
+        <v>39.9</v>
       </c>
       <c r="C102" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B103">
-        <v>45.9</v>
+        <v>40</v>
       </c>
       <c r="C103" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B104">
-        <v>48.8</v>
+        <v>45.59</v>
       </c>
       <c r="C104" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="B105">
-        <v>54.5</v>
+        <v>55.9</v>
       </c>
       <c r="C105" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B106">
-        <v>55.9</v>
+        <v>58.49</v>
       </c>
       <c r="C106" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="B107">
-        <v>58.49</v>
+        <v>62</v>
       </c>
       <c r="C107" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4898,18 +4886,18 @@
         <v>67.5</v>
       </c>
       <c r="C108" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B109">
         <v>68.90000000000001</v>
       </c>
       <c r="C109" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4920,62 +4908,62 @@
         <v>92.3</v>
       </c>
       <c r="C110" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B111">
         <v>129.9</v>
       </c>
       <c r="C111" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B112">
         <v>129.9</v>
       </c>
       <c r="C112" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B113">
         <v>129.9</v>
       </c>
       <c r="C113" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B114">
         <v>129.9</v>
       </c>
       <c r="C114" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="B115">
-        <v>216.5</v>
+        <v>140.9</v>
       </c>
       <c r="C115" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4985,43 +4973,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2">
-        <v>216.5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3">
-        <v>129.9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>112</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>140.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -5054,7 +5029,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -5083,24 +5058,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B2">
-        <v>216.5</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B3">
-        <v>129.9</v>
+        <v>140.9</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5111,7 +5086,7 @@
         <v>92.3</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -5140,24 +5115,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B2">
-        <v>9.390000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B3">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5168,7 +5143,7 @@
         <v>4.6</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
